--- a/data/trans_dic/P9_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,16</t>
+          <t>7,65; 15,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,15</t>
+          <t>8,92; 16,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,69</t>
+          <t>7,01; 13,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 25,7</t>
+          <t>14,98; 25,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,07; 31,75</t>
+          <t>21,25; 32,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,67</t>
+          <t>10,44; 16,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,57</t>
+          <t>12,45; 18,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 22,55</t>
+          <t>16,07; 23,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,88</t>
+          <t>9,3; 13,83</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,58</t>
+          <t>7,18; 12,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,37</t>
+          <t>8,13; 14,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,32</t>
+          <t>6,15; 11,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,67</t>
+          <t>14,83; 22,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,57</t>
+          <t>14,66; 21,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 23,1</t>
+          <t>15,79; 22,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,14</t>
+          <t>13,04; 19,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 28,09</t>
+          <t>21,63; 27,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,04</t>
+          <t>11,66; 16,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,4</t>
+          <t>12,91; 17,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,9</t>
+          <t>10,7; 15,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 24,51</t>
+          <t>19,35; 24,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,5</t>
+          <t>3,87; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,65</t>
+          <t>8,98; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,17</t>
+          <t>6,08; 11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 18,84</t>
+          <t>11,56; 18,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,9</t>
+          <t>10,16; 17,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,17</t>
+          <t>15,72; 24,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,67</t>
+          <t>8,83; 16,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,54</t>
+          <t>15,78; 22,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,65</t>
+          <t>7,87; 12,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,25</t>
+          <t>13,41; 19,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,31</t>
+          <t>8,27; 13,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,46</t>
+          <t>14,75; 19,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,17</t>
+          <t>3,11; 7,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,18</t>
+          <t>12,6; 18,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 21,36</t>
+          <t>13,09; 20,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 26,5</t>
+          <t>16,05; 26,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 20,56</t>
+          <t>12,64; 20,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 34,08</t>
+          <t>26,78; 34,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,57; 37,83</t>
+          <t>27,65; 37,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,91</t>
+          <t>20,32; 28,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,28</t>
+          <t>8,54; 13,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 24,98</t>
+          <t>20,51; 25,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 28,29</t>
+          <t>21,51; 28,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,39</t>
+          <t>19,57; 26,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,49</t>
+          <t>4,49; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,62</t>
+          <t>8,61; 17,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,45</t>
+          <t>5,13; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,6</t>
+          <t>4,43; 10,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,19</t>
+          <t>8,06; 17,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,77; 31,0</t>
+          <t>19,2; 30,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 17,93</t>
+          <t>9,34; 18,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,97</t>
+          <t>10,05; 15,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 12,99</t>
+          <t>7,15; 12,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 22,96</t>
+          <t>15,23; 22,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,73</t>
+          <t>7,82; 13,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,32</t>
+          <t>8,4; 12,57</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,02</t>
+          <t>6,75; 13,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,94</t>
+          <t>10,05; 18,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,92</t>
+          <t>12,51; 21,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,66</t>
+          <t>9,76; 16,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,71</t>
+          <t>12,62; 22,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 21,57</t>
+          <t>12,98; 22,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,62; 30,17</t>
+          <t>19,15; 30,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,54</t>
+          <t>13,94; 20,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,96; 16,85</t>
+          <t>10,73; 16,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 18,88</t>
+          <t>12,84; 18,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,63</t>
+          <t>16,89; 24,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,36</t>
+          <t>12,75; 17,13</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,15</t>
+          <t>7,47; 12,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,85</t>
+          <t>7,13; 11,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,85</t>
+          <t>8,51; 13,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,9</t>
+          <t>12,69; 18,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,65</t>
+          <t>11,47; 16,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,94</t>
+          <t>13,21; 19,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,3</t>
+          <t>17,78; 24,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,72; 25,11</t>
+          <t>13,03; 25,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,64</t>
+          <t>10,1; 13,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,68</t>
+          <t>11,09; 14,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,05</t>
+          <t>14,02; 18,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,79</t>
+          <t>13,81; 20,67</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,15</t>
+          <t>8,81; 13,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,16</t>
+          <t>9,36; 14,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,86</t>
+          <t>5,32; 9,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,78</t>
+          <t>8,61; 13,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,11</t>
+          <t>15,23; 20,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,72</t>
+          <t>16,07; 21,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,09</t>
+          <t>12,07; 17,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,82</t>
+          <t>18,05; 23,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,74; 16,29</t>
+          <t>12,81; 16,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,06</t>
+          <t>13,35; 17,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,39</t>
+          <t>9,19; 12,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,8</t>
+          <t>13,86; 17,94</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,12; 10,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>10,91; 13,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,44; 11,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,83; 15,39</t>
+          <t>12,8; 15,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,12; 17,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,57; 22,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,07; 20,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,62</t>
+          <t>18,11; 21,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,95; 13,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,43</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,19; 15,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,17; 18,33</t>
+          <t>16,23; 18,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,51</t>
+          <t>7,93; 15,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,75</t>
+          <t>8,77; 17,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 25,23</t>
+          <t>15,87; 25,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 32,41</t>
+          <t>21,5; 31,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,67</t>
+          <t>12,13; 19,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,07</t>
+          <t>16,12; 22,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,54</t>
+          <t>6,93; 12,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,48</t>
+          <t>8,21; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,14</t>
+          <t>6,24; 11,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,38</t>
+          <t>14,68; 21,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 22,98</t>
+          <t>15,43; 22,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 19,9</t>
+          <t>13,58; 20,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 16,05</t>
+          <t>11,63; 16,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 17,72</t>
+          <t>12,67; 17,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,1</t>
+          <t>10,43; 15,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,43</t>
+          <t>3,89; 9,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 17,08</t>
+          <t>8,81; 16,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,93</t>
+          <t>5,89; 11,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,69</t>
+          <t>10,33; 17,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,72; 24,7</t>
+          <t>15,25; 24,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 16,38</t>
+          <t>8,98; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,69</t>
+          <t>7,85; 12,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,36</t>
+          <t>13,23; 19,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,66</t>
+          <t>8,15; 13,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,88</t>
+          <t>3,0; 8,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 18,33</t>
+          <t>12,21; 17,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 20,75</t>
+          <t>13,33; 21,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,15</t>
+          <t>12,72; 19,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,17</t>
+          <t>27,16; 34,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,65; 37,49</t>
+          <t>27,77; 38,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 13,55</t>
+          <t>8,52; 13,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 25,23</t>
+          <t>20,62; 25,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 28,04</t>
+          <t>21,92; 28,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,58</t>
+          <t>4,26; 11,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,71</t>
+          <t>8,53; 17,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,85</t>
+          <t>5,25; 12,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 17,46</t>
+          <t>8,02; 17,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 30,99</t>
+          <t>19,26; 31,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,65</t>
+          <t>9,21; 18,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,95</t>
+          <t>7,21; 13,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 22,99</t>
+          <t>15,27; 23,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,88</t>
+          <t>8,04; 14,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,7</t>
+          <t>6,84; 14,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,05; 18,62</t>
+          <t>9,77; 18,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 21,57</t>
+          <t>12,81; 21,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,62; 22,11</t>
+          <t>13,19; 22,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 22,17</t>
+          <t>13,19; 22,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,15; 30,08</t>
+          <t>19,19; 29,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,66</t>
+          <t>10,84; 16,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,84</t>
+          <t>12,7; 18,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,21</t>
+          <t>17,1; 24,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,28</t>
+          <t>7,47; 12,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,73</t>
+          <t>7,25; 11,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,28</t>
+          <t>8,53; 13,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,83</t>
+          <t>11,3; 16,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,23</t>
+          <t>13,14; 18,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,2</t>
+          <t>17,61; 23,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,78</t>
+          <t>10,01; 13,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,09; 14,95</t>
+          <t>10,8; 14,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,28</t>
+          <t>14,13; 18,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,3</t>
+          <t>8,47; 12,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,35</t>
+          <t>9,19; 14,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,06</t>
+          <t>5,2; 8,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,92</t>
+          <t>15,44; 21,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,63</t>
+          <t>16,21; 21,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,07; 17,21</t>
+          <t>11,86; 17,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,81; 16,47</t>
+          <t>12,8; 16,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,35; 17,2</t>
+          <t>13,4; 17,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,19; 12,44</t>
+          <t>9,2; 12,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,05</t>
+          <t>8,08; 10,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,21</t>
+          <t>10,87; 13,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,44; 11,53</t>
+          <t>9,43; 11,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,72</t>
+          <t>15,14; 17,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,57; 22,35</t>
+          <t>19,55; 22,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,07; 20,73</t>
+          <t>18,06; 20,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,54</t>
+          <t>11,97; 13,6</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,43</t>
+          <t>15,72; 17,48</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 15,93</t>
+          <t>14,28; 16,03</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
